--- a/wall-assembly.xlsx
+++ b/wall-assembly.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/preston/Documents/GitHub/597-GA-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31074986-CEDE-DA42-A5D3-E3D0542E003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC9850-1D00-244E-B9E9-DD32A25CED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1380" windowWidth="29020" windowHeight="17640" xr2:uid="{DBC97643-CEC4-D34F-8A26-74F3A2753B97}"/>
+    <workbookView xWindow="28960" yWindow="5440" windowWidth="29020" windowHeight="17640" xr2:uid="{DBC97643-CEC4-D34F-8A26-74F3A2753B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Gypsum Board</t>
   </si>
@@ -67,9 +68,6 @@
     <t>ASSEMBLY:</t>
   </si>
   <si>
-    <t>Fiberglass Insulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wood Cladding </t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>Path 2 (Framing)</t>
   </si>
   <si>
-    <t>2" x 8" Wood Stud</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -121,16 +116,31 @@
     <t>x 85%</t>
   </si>
   <si>
-    <t>R Overall:</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Rigid Insulation</t>
+  </si>
+  <si>
+    <t>2" x 6" Wood Stud</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>Rwall</t>
+  </si>
+  <si>
+    <t>Uwall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -173,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,22 +274,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -293,6 +306,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3F1D0B-FE65-A04D-8ACC-51A9B5F7C79E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="333" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,202 +645,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C6" s="7">
+        <v>12.31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.38</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="C8" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>14.68</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9">
-        <v>14.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <f>SUM(D2:D9)</f>
-        <v>31.23</v>
-      </c>
-      <c r="E10" s="7">
+        <v>28.61</v>
+      </c>
+      <c r="E10" s="5">
         <f>SUM(E2:E9)</f>
-        <v>17.910000000000004</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="D12">
         <f>D10*0.85</f>
-        <v>26.545500000000001</v>
+        <v>24.3185</v>
       </c>
       <c r="E12">
         <f>E10*0.15</f>
-        <v>2.6865000000000006</v>
-      </c>
-      <c r="I12" s="10" t="s">
+        <v>2.5380000000000003</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
         <f>D12+E12</f>
-        <v>29.231999999999999</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>26.8565</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11">
+        <f>1/D13</f>
+        <v>3.7234933814905141E-2</v>
+      </c>
+      <c r="E14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>